--- a/clinical_properties_summary.xlsx
+++ b/clinical_properties_summary.xlsx
@@ -582,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,27 +811,51 @@
           <t>Epirubicin</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Entrectinib</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Epirubicin</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Entrectinib</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -1295,7 +1319,11 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
@@ -1304,7 +1332,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1386,6 +1418,40 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1397,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT40"/>
+  <dimension ref="A1:AV40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,217 +1489,227 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Tumor Site</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Tumor Size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Invasive Size (for adenocarcinomas)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Spread through alveolar spaces</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Histologic Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Chemotherapy (Pre-surgery)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Radiation (Pre-surgery)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Immunotherapy (Pre-surgery)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Targeted/Combination Therapy (Pre-surgery)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Experimental Tx (Pre-surgery)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Chemotherapy (Adjuvant)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Radiation (Adjuvant)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Immunotherapy (Adjuvant)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Targeted Therapy (Adjuvant)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Experimental Tx (Adjuvant)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tumor Focality</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Site</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tumor Size</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Invasive Size</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Spread through alveolar spaces</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Histologic Type</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Number of foci</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>For Pleomorphic Carcinoma :Histologic Components Present (select all that apply)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Histologic Patterns</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Histologic Patterns (for adenocarcinomas)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Acinar</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Papillary</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Lepidic</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Solid</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Micropapillary</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Complex glands (cribiform and fused glands)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Histologic Grade</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Visceral Pleura Invasion</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Direct Invasion of Adjacent Structures</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Involved Adjacent Structures (select all that apply)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Treatment Effect</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Percentage of Residual Viable Tumor</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Percentage of Necrosis</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Percentage of Stroma (includes fibrosis and inflammation)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Lymphovascular Invasion (select all that apply)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Margin Status</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Regional Lymph Node Status</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Regional Lymph Node Status.1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Number of Lymph Nodes with Tumor</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Node Site(s) with Tumor (select all that apply)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Number of Lymph Nodes Examined</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Distant Metastasis</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Location of Distant Metastasis</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Additional Findings</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Smoking Status</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Pack Years</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>TMB</t>
         </is>
       </c>
     </row>
@@ -1655,203 +1731,217 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cisplain</t>
+          <t>Upper lobe of lung</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>[Greatest dimension: _______ cm]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[Greatest dimension: _______ cm]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma in situ, nonmucinous</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cisplatin</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Nivolumab</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Alectinib</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>[free text]</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Cisplain</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Cisplatin</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Nivolumab</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Alectinib</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Single focus</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Upper lobe of lung</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[Greatest dimension: _______ cm]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Adenocarcinoma in situ, nonmucinous</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
         <is>
           <t>Spindle cell carcinoma</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>G1, well differentiated</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Not identified</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Not applicable (no adjacent structures present)</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Main bronchus</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>No known presurgical therapy</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>___%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Not identified</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>Negative (Clear)</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>[Specify number]</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>1R: Low cervical, supraclavicular, scalene, and sternal notch</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>[Specify number]</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>None identified</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1871,143 +1961,165 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Middle lobe of lung</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma in situ, mucinous</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>Carboplatin</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Pembrolizumab</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Osimertinib</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Carboplatin</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Pembrolizumab</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Osimertinib</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Separate tumor nodules (metastases) in same lobe</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Middle lobe of lung</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Adenocarcinoma in situ, mucinous</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
         <is>
           <t>Giant cell carcinoma</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>G2, moderately differentiated</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Not identified</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Hilar soft tissues</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>Not identified</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Present (not otherwise specified)</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
           <t>Regional lymph nodes present</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr">
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>2R: Upper paratracheal</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr">
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>Separate tumor nodules in contralateral lobe</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Atypical adenomatous hyperplasia</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Former</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2023,21 +2135,21 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Etoposide</t>
+          <t>Lower lobe of lung</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atezolizumab</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Erlotinib</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Minimally invasive adenocarcinoma, nonmucinous</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Etoposide</t>
@@ -2057,89 +2169,103 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Separate tumor nodules (metastases) in different ipsilateral lobe</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Lower lobe of lung</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+          <t>Etoposide</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Atezolizumab</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Erlotinib</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Minimally invasive adenocarcinoma, nonmucinous</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+          <t>Separate tumor nodules (metastases) in different ipsilateral lobe</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
         <is>
           <t>Adenocarcinoma</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>G3, poorly differentiated</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Cannot be determined</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>Carina</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Lymphatic invasion present</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr">
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>4R: Lower paratracheal</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr">
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>Pleural nodules</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Squamous dysplasia</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -2151,21 +2277,17 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lurbinectedin</t>
+          <t>Bronchus, main</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Durvalumab</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Afatinibrr</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Minimally invasive adenocarcinoma, mucinous</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Lurbinectedin</t>
@@ -2179,83 +2301,97 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Afatinibrr</t>
+          <t>Afatinib</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Separate tumor nodules (metastases) in contralateral lobe</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Bronchus, main</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+          <t>Lurbinectedin</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Durvalumab</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Afatinibr</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Minimally invasive adenocarcinoma, mucinous</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+          <t>Separate tumor nodules (metastases) in contralateral lobe</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
         <is>
           <t>Squamous cell carcinoma</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>G4, undifferentiated</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Parietal pleura</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr">
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>Arterial invasion present</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr">
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>8R: Para-esophageal</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr">
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>Pericardial nodules</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>Metaplasia</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -2267,21 +2403,17 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Topotecan</t>
+          <t>Bronchus, intermedius</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Geftinib</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Invasive lepidic adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Topotecan</t>
@@ -2301,77 +2433,83 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Multifocal tumor nodules of similar histology type not considered intrapulmonary metastases</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Bronchus, intermedius</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+          <t>Topotecan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Geftinib</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Invasive lepidic adenocarcinoma</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
+          <t>Multifocal tumor nodules of similar histology type not considered intrapulmonary metastases</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
         <is>
           <t>Large cell carcinoma</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>GX, cannot be specified</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Chest wall</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>Venous invasion present</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr">
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
         <is>
           <t>9R: Pulmonary ligament</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr">
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>Malignant pleural effusion</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>Diffuse neuroendocrine hyperplasia</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -2383,44 +2521,52 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Irinotecan</t>
+          <t>Bronchus, lobar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Invasive acinar adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Irinotecan</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Dacomitinb</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Irinotecan</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Dacomitinb</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Bronchus, lobar</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Invasive acinar adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -2432,42 +2578,44 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Phrenic nerve</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>Cannot be determined</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>10R: Hilar</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr">
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>Malignant pericardial effusion</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>Inflammation</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -2477,19 +2625,15 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Paclitaxel</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Ramucirumab</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Invasive papillary adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Paclitaxel</t>
@@ -2503,16 +2647,20 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Paclitaxel</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Ramucirumab</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Invasive papillary adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -2524,12 +2672,12 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Parietal pericardium</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
@@ -2537,25 +2685,27 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>11R: Interlobar</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr">
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>Single extrathoracic metastasis in one organ (including a single nonregional lymph node)</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>Fibrosis</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -2565,19 +2715,15 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Temozolomide</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Bevacizumabss</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Invasive micropapillary adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Temozolomide</t>
@@ -2587,20 +2733,24 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Bevacizumabss</t>
+          <t>Bevacizumab</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Temozolomide</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bevacizumabs</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Invasive micropapillary adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -2612,12 +2762,12 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Diaphragm</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
@@ -2625,25 +2775,27 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
         <is>
           <t>12R: Lobar</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr">
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>Multiple extrathoracic metastases in a single organ</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>Emphysema</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -2653,19 +2805,15 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CAV</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Invasive solid adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>CAV</t>
@@ -2679,16 +2827,20 @@
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>CAV</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Invasive solid adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -2700,12 +2852,12 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Mediastinum</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
@@ -2713,21 +2865,23 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
         <is>
           <t>13R: Segmental</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr">
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>Multiple extrathoracic metastases in multiple organs</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2737,15 +2891,15 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Docetaxel</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Invasive mucinous adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Docetaxel</t>
@@ -2753,18 +2907,26 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Docetaxel</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Invasive mucinous adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2776,12 +2938,12 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Heart</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
@@ -2789,21 +2951,23 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>14R: Subsegmental</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr">
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>Cannot be determined</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -2813,15 +2977,15 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Gemcitabine</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mixed invasive mucinous and non-mucinous adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Gemcitabine</t>
@@ -2831,16 +2995,16 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Gemcitabine</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Mixed invasive mucinous and non-mucinous adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2852,12 +3016,12 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr">
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Great vessels</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
@@ -2865,31 +3029,33 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr">
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>3a: Pre-vascular</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Pemetrexed</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Colloid adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Pemetrexed</t>
@@ -2899,16 +3065,16 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Pemetrexed</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Colloid adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2920,12 +3086,12 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr">
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Trachea</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
@@ -2933,31 +3099,33 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr">
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>3p: Retrotracheal</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fetal adenocarcinoma</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Other</t>
@@ -2967,16 +3135,16 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Fetal adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2988,12 +3156,12 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr">
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Recurrent laryngeal nerve</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
@@ -3001,17 +3169,19 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr">
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
         <is>
           <t>7: Subcarinal</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -3021,22 +3191,30 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Enteric-type adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Enteric-type adenocarcinoma</t>
-        </is>
-      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -3048,12 +3226,12 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr">
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Esophagus</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
@@ -3061,17 +3239,19 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr">
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
         <is>
           <t>1L: Low cervical, supraclavicular, scalene, and sternal notch</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -3081,7 +3261,11 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Squamous cell carcinoma in situ (SCIS)</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -3092,11 +3276,7 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Squamous cell carcinoma in situ (SCIS)</t>
-        </is>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -3108,12 +3288,12 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr">
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Vertebral body</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
@@ -3121,17 +3301,19 @@
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr">
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
         <is>
           <t>2L: Upper paratracheal</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -3141,7 +3323,11 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Invasive squamous cell carcinoma, keratinizing</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -3152,11 +3338,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Invasive squamous cell carcinoma, keratinizing</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -3177,17 +3359,19 @@
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr">
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
         <is>
           <t>4L: Lower paratracheal</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -3197,7 +3381,11 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Invasive squamous cell carcinoma, non-keratinizing</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -3208,11 +3396,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Invasive squamous cell carcinoma, non-keratinizing</t>
-        </is>
-      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3233,17 +3417,19 @@
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr">
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
         <is>
           <t>8L: Para-esophageal</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -3253,7 +3439,11 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Invasive squamous cell carcinoma, basaloid</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -3264,11 +3454,7 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Invasive squamous cell carcinoma, basaloid</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3289,17 +3475,19 @@
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr">
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
         <is>
           <t>9L: Pulmonary ligament</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -3309,7 +3497,11 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lymphoepithelial carcinoma</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -3320,11 +3512,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Lymphoepithelial carcinoma</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3345,17 +3533,19 @@
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr">
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
         <is>
           <t>10L: Hilar</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -3365,7 +3555,11 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Large cell carcinoma</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -3376,11 +3570,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Large cell carcinoma</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3401,17 +3591,19 @@
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr">
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
         <is>
           <t>11L: Interlobar</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -3421,7 +3613,11 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Adenosquamous carcinoma</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3432,11 +3628,7 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Adenosquamous carcinoma</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3457,17 +3649,19 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr">
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
         <is>
           <t>12L: Lobar</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -3477,7 +3671,11 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Pleomorphic carcinoma</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3488,11 +3686,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Pleomorphic carcinoma</t>
-        </is>
-      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3513,17 +3707,19 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr">
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
         <is>
           <t>13L: Segmental</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -3533,7 +3729,11 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Carcinosarcoma</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3544,11 +3744,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Carcinosarcoma</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3569,17 +3765,19 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr">
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
         <is>
           <t>14L: Subsegmental</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -3589,7 +3787,11 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NUT carcinoma</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3600,11 +3802,7 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>NUT carcinoma</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -3632,6 +3830,8 @@
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3641,7 +3841,11 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Thoracic SMARCA4-deficient undifferentiated tumor</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3652,11 +3856,7 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Thoracic SMARCA4-deficient undifferentiated tumor</t>
-        </is>
-      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -3684,6 +3884,8 @@
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -3693,7 +3895,11 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Adenoid cystic carcinoma</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3704,11 +3910,7 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Adenoid cystic carcinoma</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -3736,6 +3938,8 @@
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3745,7 +3949,11 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Epithelial-myoepithelial carcinoma</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3756,11 +3964,7 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Epithelial-myoepithelial carcinoma</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -3788,6 +3992,8 @@
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -3797,7 +4003,11 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mucoepidermoid carcinoma</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3808,11 +4018,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Mucoepidermoid carcinoma</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -3840,6 +4046,8 @@
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -3849,7 +4057,11 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hyalinizing clear cell carcinoma</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -3860,11 +4072,7 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Hyalinizing clear cell carcinoma</t>
-        </is>
-      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -3892,6 +4100,8 @@
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -3901,7 +4111,11 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Myoepithelial carcinoma</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3912,11 +4126,7 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Myoepithelial carcinoma</t>
-        </is>
-      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -3944,6 +4154,8 @@
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -3953,7 +4165,11 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Typical carcinoid/Neuroendocrine tumor, grade 1</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3964,11 +4180,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Typical carcinoid/Neuroendocrine tumor, grade 1</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -3996,6 +4208,8 @@
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -4005,7 +4219,11 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Atypical carcinoid/Neuroendocrine tumor, grade 2</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -4016,11 +4234,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Atypical carcinoid/Neuroendocrine tumor, grade 2</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -4048,6 +4262,8 @@
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -4057,7 +4273,11 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Carcinoid tumor, NOS/Neuroendocrine tumor, NOS</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -4068,11 +4288,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Carcinoid tumor, NOS/Neuroendocrine tumor, NOS</t>
-        </is>
-      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -4100,6 +4316,8 @@
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -4109,7 +4327,11 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Small cell carcinoma</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4120,11 +4342,7 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Small cell carcinoma</t>
-        </is>
-      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -4152,6 +4370,8 @@
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4161,7 +4381,11 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Combined small cell carcinoma</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4172,11 +4396,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Combined small cell carcinoma</t>
-        </is>
-      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -4204,6 +4424,8 @@
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
       <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -4213,7 +4435,11 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Large cell neuroendocrine carcinoma</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4224,11 +4450,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Large cell neuroendocrine carcinoma</t>
-        </is>
-      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -4256,6 +4478,8 @@
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -4265,7 +4489,11 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Combined large cell neuroendocrine carcinoma</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4276,11 +4504,7 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Combined large cell neuroendocrine carcinoma</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -4308,6 +4532,8 @@
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -4317,7 +4543,11 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Carcinoma, type cannot be determined</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4328,11 +4558,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Carcinoma, type cannot be determined</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -4360,6 +4586,8 @@
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -4369,7 +4597,11 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Non-small cell carcinoma, subtype cannot be determined</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -4380,11 +4612,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Non-small cell carcinoma, subtype cannot be determined</t>
-        </is>
-      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -4412,6 +4640,8 @@
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4805,7 +5035,11 @@
           <t>Vemurafenib</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AD2" t="inlineStr">
         <is>
           <t>Dacarbazine</t>
@@ -4826,7 +5060,11 @@
           <t>Vemurafenib</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AI2" t="inlineStr">
         <is>
           <t>Not identified</t>
@@ -5339,7 +5577,11 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AR5" t="inlineStr">
         <is>
           <t>50-100 times</t>
@@ -5447,7 +5689,11 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Not reported</t>
+        </is>
+      </c>
       <c r="AR6" t="inlineStr">
         <is>
           <t>More than 100 times</t>
@@ -5505,7 +5751,11 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>Other</t>
@@ -5522,7 +5772,11 @@
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr">
         <is>
           <t>Other</t>
@@ -5602,7 +5856,11 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>Nivolumab and relatimab-rmbw fixed-dose</t>
@@ -5615,7 +5873,11 @@
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
           <t>Nivolumab and relatimab-rmbw fixed-dose</t>
@@ -5768,7 +6030,11 @@
           <t>High-dose IL-2</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
@@ -5777,7 +6043,11 @@
           <t>High-dose IL-2</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -5967,12 +6237,20 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
@@ -6259,7 +6537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6397,7 +6675,11 @@
           <t>Paclitaxel</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Ipilumumab</t>
@@ -6408,13 +6690,21 @@
           <t>Sunitinib</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Paclitaxel</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ipilumumab</t>
@@ -6425,7 +6715,11 @@
           <t>Sunitinib</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6578,7 +6872,11 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Larotrectinib</t>
@@ -6788,7 +7086,11 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -7438,6 +7740,30 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7769,7 +8095,11 @@
           <t>Etoposide</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Pembrolizumab</t>
@@ -7780,13 +8110,21 @@
           <t>Mervetuximab soravtansine-gynx</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Etoposide</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Pembrolizumab</t>
@@ -7797,7 +8135,11 @@
           <t>Mervetuximab soravtansine-gynx</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
@@ -7986,7 +8328,11 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Binimetinib</t>
@@ -7999,7 +8345,11 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Binimetinib</t>
@@ -8341,7 +8691,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Niraparib</t>
+          <t>Rucaparib</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -8354,7 +8704,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Niraparib</t>
+          <t>Rucaparib</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -8413,7 +8763,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rucaparib</t>
+          <t>Liposomal Doxorubicin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -8426,7 +8776,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Rucaparib</t>
+          <t>Liposomal Doxorubicin</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -8481,7 +8831,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Liposomal Doxorubicin</t>
+          <t>Niraparib</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -8494,7 +8844,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Liposomal Doxorubicin</t>
+          <t>Niraparib</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -9063,7 +9413,11 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
@@ -9072,7 +9426,11 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -9208,12 +9566,20 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -10193,7 +10559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10658,35 +11024,71 @@
           <t>Excision</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>List of Identifiers (separated by commas) of adjacent biospecimens cut from the same sample</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Text term that represents the kind of molecular specimen analyte.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Identifier for the Biospecimen</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Cell Block</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Number of days from the research participant's index date that the biospecimen was obtained.</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>matrix</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Number of days between the date of sample acquisition and the date that the biospecimen was processed</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Number of days between the date of sample acquisition and the date that the specimen was sectioned</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Moderate dysplasia</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Information related to the presence of cells that look abnormal under a microscope but are not cancer. Records the degree of dysplasia for the cyst or lesion under consideration.</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Grid slides (hemocytometer)</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>The length of time from beginning to end  required to process or preserve biospecimens in fixative (measured in minutes)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The field to identify the type of fixative used to preserve a tissue specimen</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -10698,17 +11100,57 @@
           <t>Aqueous (water based) medium</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Numeric value that represents the count of proliferating cells determined during pathologic review of the sample slide(s).</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Parent Identifier from which the biospecimen was obtained. The parent could be another biospecimen or a research participant.</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of cell death in a malignant tumor sample or specimen.</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of normal cell content in a malignant tumor sample or specimen.</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of reactive cells that are present in a malignant tumor sample or specimen but are not malignant such as fibroblasts</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of infiltration by tumor cells in a sample.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of tumor nuclei in a malignant neoplasm sample or specimen.</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Number of days from the research participant's date of death that the biospecimen was obtained</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Identifier that describes the protocol by which the sample was obtained or generated. E.g. Protocols.io</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Numeric value to describe the thickness of a slice to tissue taken from a biospecimen,  measured in microns (um).</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>Dry Ice</t>
@@ -10734,7 +11176,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Number of tumor-infiltrating lymphocytes</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>Metastatic</t>
@@ -10776,7 +11222,11 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>The method of assessment used to characterize histology</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -10795,7 +11245,11 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Text term that represents the method used to preserve the sample.</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
@@ -10927,11 +11381,19 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Fiducial markers for the alignment of images taken across multiple rounds of imaging.</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Text term describing who made the histological assessments of the sample</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>Toluene</t>
@@ -10955,8 +11417,16 @@
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>The method by which a biomaterial was stored after preservation or before another protocol was used.</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Label to identify the time point at which the biospecimen was obtained.</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
     </row>
@@ -10969,7 +11439,11 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biospecimen Type</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -11002,12 +11476,24 @@
           <t>Other Shipping Environment</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>The method by which the tissue was sliced.</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>A description of the charge on the glass slide.</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Text that describes the kind of disease present in the tumor specimen as related to a specific time point.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11020,10 +11506,18 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Control tissue / area</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Information related to the presence of cells that look abnormal under a microscope but are not cancer. Records the degree of dysplasia for the cyst or lesion under consideration.</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -11075,7 +11569,11 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>The solution in which the specimen is embedded,  generally under a cover glass. It may be liquid, soluble in water, alcohol or other solvents and be sealed from the external atmosphere by non-soluble ringing media. gum or resinous</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -11128,7 +11626,11 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Text descriptor of the shipping environment of a biospecimen.</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
@@ -11136,1576 +11638,11 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Vital Status at Last Follow Up</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Pathologic Diagnosis</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Site of Resection or Biopsy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tissue or Organ of Origin</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Prior Treatment</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Last Known Disease Status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>NGS</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Other Molecular Profiling</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant IHC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alive</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Deceased</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:X6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Days to Last Follow Up</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cancer Tissue of Origin (Organ)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Recurrence/Progression Status of samples</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor site</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Progression or Recurrence</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Treatment History at time of sample collection</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Last Known Disease Status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>NGS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Other Molecular Profiling</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant IHC</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Progression Free Survival (PFS)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Overall Survival (OS)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Date last updated</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 16</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 18</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 19</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>AJCC 8th Edition Staging (TNM)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>NGS.1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Other Molecular Profiling.1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant IHC.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Primary</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Primary</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Treatment naïve</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Progression</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Metastatic</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Received neoadjuvant treatment</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Recurrent</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Received adjuvant treatment</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Metastasis</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AI29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Histologic Type (select all that apply)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Histologic Grade</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>(Histologic grade for urothelial carcinoma)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Treatment Type</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Chemotherapy (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Radiation (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Immunotherapy (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Targeted Therapy (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Experimental Tx (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Chemotherapy (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Radiation (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Immunotherapy (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Targeted Therapy (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Experimental Tx (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Muscularis propria</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Extent (select all that apply)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Adjacent Structures with Invasion</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Lymphovascular Invasion</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Configuration (select all that apply)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Regional Lymph Node Status</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Lymph Nodes with Tumor</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Lymph Nodes Examined</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Distant Metastasis</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Location of Distant Metastasis</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Associated Epithelial Lesions (select all that apply)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Additional Findings</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Intravesical chemotherapy after TURBT</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Prior BCG therapy</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Cisplatin received</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Smoking Status</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Pack Years</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Carcinoma</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Biopsy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Trigone</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Papillary urothelial carcinoma, noninvasive</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Low-grade</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>G1, well-differentiated</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Greatest dimension in cm: ____</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Chemotherapy</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Pembrolizumab</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Enfortumab vedotin-ejfv</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Pembrolizumab</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Enfortumab vedotin-ejfv</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Muscularis propria absent</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Noninvasive papillary carcinoma</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Prostate (transmural invasion from the bladder tumor)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Not identified</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Papillary</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[Specify number]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[Specify number]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>None identified</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Urothelial dysplasia</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Transurethral resection of bladder (TURBT)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Right lateral wall</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Papillary urothelial carcinoma, invasive</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>High-Grade</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>G2, moderately differentiated</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Radiation</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Gemcitabine</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Avelumab</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Erdafitinibd</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Gemcitabine</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Avelumab</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Erdafitinibd</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Muscularis propria present</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma in situ</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Seminal vesicles</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Solid/nodule</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Regional lymph nodes present</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Urothelial papilloma</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Adenocarcinoma of prostrate</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Partial cystectomy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Left lateral wall</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma in situ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>G3, poorly differentiated</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Immunotherapy</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>DDMVAC</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Atezolizumab</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>DDMVAC</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Atezolizumab</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Invades lamina propria (subepithelial connective tissue)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Flat</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Urothelial papilloma, inverted type</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>Inflammation/regenerative changes</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Radical cystectomy (total cystectomy)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Anterior wall</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, invasive</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>GX, cannot be assessed</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Paclitaxel</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Paclitaxel</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Invades superficial muscularis propria (inner half)</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Vagina</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Ulcerated</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Papillary urothelial neoplasm, low malignant potential (PUNLMP)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Therapy-related changes</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Radical cystoprostatectomy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Posterior wall</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, nested</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Doxorubicin</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Doxorubicin</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Invades deep muscularis propria (outer half)</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Adnexa</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Urothelial proliferation of uncertain malignant potential</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Cystitis cystica et glandularis</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anterior exenteration</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Dome</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, microcystic variant</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Ifosfamide</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Ifosfamide</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Invades perivesical soft tissue microscopically</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Pelvis wall</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Urothelial dysplasia</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Keratinizing squamous metaplasia</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Radical nephrectomy</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ureter</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, micropapillary variant</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5-FU</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5-FU</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Invades perivesical soft tissue macroscopically (extravesical mass)</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Abdominal wall</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Intestinal metaplasia</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TUR urethral tumor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Renal pelvic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, lymphoepithelioma-like variant</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Taxane</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Taxane</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Invades adjacent structure(s)</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Rectum</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, plasmacytoid/signet ring cell/diffuse</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Capecitabine</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Capecitabine</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, sarcomatoid variant</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-    </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, giant cell variant</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -12739,14 +11676,14 @@
       <c r="AI12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Records the method of acquisition or source for the specimen under consideration.</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Urothelial carcinoma, poorly differentiated variant</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -12779,6 +11716,1668 @@
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vital Status at Last Follow Up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Days to last follow up</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pathologic Diagnosis</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Site of Resection or Biopsy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tissue or Organ of Origin</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Prior Treatment</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Last Known Disease Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>NGS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Other Molecular Profiling</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Relevant IHC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alive</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Describe type:</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Describe type:</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Deceased</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anatomic location of sample (Procedure site)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pathologic Diagnosis</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site of Resection or Biopsy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cancer Tissue of Origin (Organ)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recurrence/Progression Status of samples</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor site</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Progression or Recurrence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Treatment History at time of sample collection</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Last Known Disease Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>NGS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Other Molecular Profiling</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Relevant IHC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Progression Free Survival (PFS)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Survival (OS)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Date last updated</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AJCC 8th Edition Staging (TNM)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NGS.1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Other Molecular Profiling.1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Relevant IHC.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Treatment naïve</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Describe type:</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Describe type:</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Describe type:</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Describe type:</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Progression</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Metastatic</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Received neoadjuvant treatment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>anatomic location of sample (Procedure site)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Recurrent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Received adjuvant treatment</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Metastasis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AI29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Site</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Histologic Type (select all that apply)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Histologic Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>(Histologic grade for urothelial carcinoma)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Treatment Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Chemotherapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Radiation (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Immunotherapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Targeted Therapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Tx (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Chemotherapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Radiation (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Immunotherapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Targeted Therapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Tx (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Muscularis propria</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Extent (select all that apply)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Adjacent Structures with Invasion</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Lymphovascular Invasion</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Configuration (select all that apply)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Regional Lymph Node Status</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Lymph Nodes with Tumor</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Lymph Nodes Examined</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Distant Metastasis</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Location of Distant Metastasis</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Associated Epithelial Lesions (select all that apply)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Findings</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Intravesical chemotherapy after TURBT</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Prior BCG therapy</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Cisplatin received</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Smoking Status</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Pack Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Carcinoma</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Biopsy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Trigone</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Papillary urothelial carcinoma, noninvasive</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Low-grade</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>G1, well-differentiated</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Greatest dimension in cm: ____</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cisplatin</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pembrolizumab</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Enfortumab vedotin-ejfv</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Cisplatin</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Pembrolizumab</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Enfortumab vedotin-ejfv</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Muscularis propria absent</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Noninvasive papillary carcinoma</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Prostate (transmural invasion from the bladder tumor)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Not identified</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Papillary</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[Specify number]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[Specify number]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>None identified</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Urothelial dysplasia</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Transurethral resection of bladder (TURBT)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Right lateral wall</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Papillary urothelial carcinoma, invasive</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>High-Grade</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>G2, moderately differentiated</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chemotherapy</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gemcitabine</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Avelumab</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Erdafitinibd</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Gemcitabine</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Avelumab</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Erdafitinibd</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Muscularis propria present</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma in situ</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Seminal vesicles</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Solid/nodule</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Regional lymph nodes present</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Urothelial papilloma</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma of prostrate</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Partial cystectomy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Left lateral wall</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma in situ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>G3, poorly differentiated</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DDMVAC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Atezolizumab</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>DDMVAC</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Atezolizumab</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Invades lamina propria (subepithelial connective tissue)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Uterus</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Flat</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Urothelial papilloma, inverted type</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Inflammation/regenerative changes</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Radical cystectomy (total cystectomy)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Anterior wall</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, invasive</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GX, cannot be assessed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Immunotherapy</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Paclitaxel</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Paclitaxel</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Invades superficial muscularis propria (inner half)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Vagina</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Ulcerated</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Papillary urothelial neoplasm, low malignant potential (PUNLMP)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Therapy-related changes</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Radical cystoprostatectomy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Posterior wall</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, nested</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Doxorubicin</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Doxorubicin</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Invades deep muscularis propria (outer half)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Adnexa</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Urothelial proliferation of uncertain malignant potential</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Cystitis cystica et glandularis</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anterior exenteration</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dome</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, microcystic variant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Ifosfamide</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Ifosfamide</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Invades perivesical soft tissue microscopically</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Pelvis wall</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Urothelial dysplasia</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Keratinizing squamous metaplasia</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Radical nephrectomy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ureter</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, micropapillary variant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5-FU</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5-FU</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Invades perivesical soft tissue macroscopically (extravesical mass)</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Abdominal wall</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Intestinal metaplasia</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TUR urethral tumor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Renal pelvic</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, lymphoepithelioma-like variant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Taxane</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Taxane</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Invades adjacent structure(s)</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Rectum</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, plasmacytoid/signet ring cell/diffuse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Capecitabine</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Capecitabine</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, sarcomatoid variant</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, giant cell variant</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Urothelial carcinoma, poorly differentiated variant</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+    </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
@@ -13842,7 +14441,11 @@
           <t>Cyclophosphamide</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Pertuzumab</t>
@@ -13853,13 +14456,21 @@
           <t>TCHP</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Cyclophosphamide</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Pertuzumab</t>
@@ -13870,7 +14481,11 @@
           <t>TCHP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Left</t>
@@ -14091,7 +14706,11 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Lapatinib</t>
@@ -14104,7 +14723,11 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>Lapatinib</t>
@@ -14452,7 +15075,11 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
@@ -14461,7 +15088,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -14809,12 +15440,20 @@
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -15081,7 +15720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT16"/>
+  <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15881,8 +16520,16 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="AL4" t="inlineStr">
         <is>
           <t>Unknown</t>
@@ -16033,8 +16680,16 @@
       </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="AL5" t="inlineStr">
         <is>
           <t>Not applicable</t>
@@ -16211,7 +16866,11 @@
           <t>mFOLFOX 7</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Pertuzumab</t>
@@ -16224,10 +16883,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Larotrectinib</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>mFOLFOX 7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>Other</t>
@@ -16307,23 +16970,39 @@
           <t>FOLFOX</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>Selpercatinib</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>FOLFOX</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Entrectinib</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Selpercatinib</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -16392,16 +17071,28 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Adagrasib</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Selpercatinib</t>
+          <t>CAPEOX</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Adagrasib</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -16465,15 +17156,23 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Entrectinib</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Adagrasib</t>
+          <t>Ziv-aflibercept</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Entrectinib</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -16533,15 +17232,23 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Larotrectinib</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Cetuximab</t>
+          <t>Trifluridine</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Larotrectinib</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -16597,15 +17304,23 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Cetuximab</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Bevacizumab</t>
+          <t>Tipiracil</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Cetuximab</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -16657,15 +17372,23 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Bevacizumab</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Panitumumab</t>
+          <t>5-Fluorouracil</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Bevacizumab</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -16710,18 +17433,30 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Panitumumab</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Regorafenib</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Panitumumab</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -16762,18 +17497,30 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Regorafenib</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Sotorasib</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Regorafenib</t>
+        </is>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
@@ -16817,15 +17564,19 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Fruquintinib</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Sotorasib</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Sotorasib</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -16857,6 +17608,174 @@
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Fruquintinib</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Fruquintinib</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17183,7 +18102,11 @@
           <t>Docetaxel</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Nivolumab</t>
@@ -17194,13 +18117,21 @@
           <t>Fam-trastuzumab deruxtecan-nxki</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Docetaxel</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Nivolumab</t>
@@ -17211,7 +18142,11 @@
           <t>Fam-trastuzumab deruxtecan-nxki</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Tumor midpoint lies in the distal esophagus AND tumor involves the esophagogastric junction</t>
@@ -17552,7 +18487,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Trametinib</t>
@@ -17565,7 +18504,11 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Trametinib</t>
@@ -17731,15 +18674,31 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>

--- a/clinical_properties_summary.xlsx
+++ b/clinical_properties_summary.xlsx
@@ -10927,35 +10927,71 @@
           <t>Biopsy</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>List of Identifiers (separated by commas) of adjacent biospecimens cut from the same sample</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Text term that represents the kind of molecular specimen analyte.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Identifier for the Biospecimen</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Bone Marrow</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Number of days from the research participant's index date that the biospecimen was obtained.</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>fiducials</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Number of days between the date of sample acquisition and the date that the biospecimen was processed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Number of days between the date of sample acquisition and the date that the specimen was sectioned</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Carcinoma in Situ</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Information related to the presence of cells that look abnormal under a microscope but are not cancer. Records the degree of dysplasia for the cyst or lesion under consideration.</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Fluorescent beads</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>The length of time from beginning to end  required to process or preserve biospecimens in fixative (measured in minutes)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>The field to identify the type of fixative used to preserve a tissue specimen</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>Microscope</t>
@@ -10971,21 +11007,61 @@
           <t>Antifade without DAPI</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Numeric value that represents the count of proliferating cells determined during pathologic review of the sample slide(s).</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Parent Identifier from which the biospecimen was obtained. The parent could be another biospecimen or a research participant.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of cell death in a malignant tumor sample or specimen.</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of normal cell content in a malignant tumor sample or specimen.</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of reactive cells that are present in a malignant tumor sample or specimen but are not malignant such as fibroblasts</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of infiltration by tumor cells in a sample.</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Numeric value to represent the percentage of tumor nuclei in a malignant neoplasm sample or specimen.</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Number of days from the research participant's date of death that the biospecimen was obtained</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>Frozen</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Identifier that describes the protocol by which the sample was obtained or generated. E.g. Protocols.io</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Numeric value to describe the thickness of a slice to tissue taken from a biospecimen,  measured in microns (um).</t>
+        </is>
+      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>Cold Pack</t>
@@ -11011,7 +11087,11 @@
           <t>End of Treatment</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Number of tumor-infiltrating lymphocytes</t>
+        </is>
+      </c>
       <c r="AI3" t="inlineStr">
         <is>
           <t>Local Tumor Recurrence</t>
@@ -11024,71 +11104,35 @@
           <t>Excision</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>List of Identifiers (separated by commas) of adjacent biospecimens cut from the same sample</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Text term that represents the kind of molecular specimen analyte.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Identifier for the Biospecimen</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Cell Block</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Number of days from the research participant's index date that the biospecimen was obtained.</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>matrix</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Number of days between the date of sample acquisition and the date that the biospecimen was processed</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Number of days between the date of sample acquisition and the date that the specimen was sectioned</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>Moderate dysplasia</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Information related to the presence of cells that look abnormal under a microscope but are not cancer. Records the degree of dysplasia for the cyst or lesion under consideration.</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Grid slides (hemocytometer)</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>The length of time from beginning to end  required to process or preserve biospecimens in fixative (measured in minutes)</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>The field to identify the type of fixative used to preserve a tissue specimen</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -11100,57 +11144,17 @@
           <t>Aqueous (water based) medium</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Numeric value that represents the count of proliferating cells determined during pathologic review of the sample slide(s).</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Parent Identifier from which the biospecimen was obtained. The parent could be another biospecimen or a research participant.</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Numeric value to represent the percentage of cell death in a malignant tumor sample or specimen.</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Numeric value to represent the percentage of normal cell content in a malignant tumor sample or specimen.</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Numeric value to represent the percentage of reactive cells that are present in a malignant tumor sample or specimen but are not malignant such as fibroblasts</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Numeric value to represent the percentage of infiltration by tumor cells in a sample.</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Numeric value to represent the percentage of tumor nuclei in a malignant neoplasm sample or specimen.</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Number of days from the research participant's date of death that the biospecimen was obtained</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Identifier that describes the protocol by which the sample was obtained or generated. E.g. Protocols.io</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Numeric value to describe the thickness of a slice to tissue taken from a biospecimen,  measured in microns (um).</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>Dry Ice</t>
@@ -11176,11 +11180,7 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Number of tumor-infiltrating lymphocytes</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
         <is>
           <t>Metastatic</t>
@@ -11831,7 +11831,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>anatomic location of sample (Procedure site)</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
@@ -11851,11 +11855,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>anatomic location of sample (Procedure site)</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -12040,7 +12040,11 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>anatomic location of sample (Procedure site)</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
@@ -12076,11 +12080,7 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>anatomic location of sample (Procedure site)</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>

--- a/clinical_properties_summary.xlsx
+++ b/clinical_properties_summary.xlsx
@@ -14,7 +14,7 @@
     <sheet name="surgery - cancer_breast" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="surgery - cancer_colorectal" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="surgery - cancer_esophagus" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="surgery - glioblastoma" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="surgery - cancer_adult_glioma" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="surgery - cancer_kidney" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="surgery - liposarcoma" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="surgery - cancer_lung" sheetId="11" state="visible" r:id="rId11"/>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,126 +450,98 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Age at Diagnosis</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Ethnicity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Year of Death</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cause of Death</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>White</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>YYYY</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>American Indian or Alaska native</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Black or African American</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Asian</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Native Hawaiian or other Pacific islander</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1058,7 +1030,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
@@ -1100,7 +1076,11 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mesna</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
@@ -1142,7 +1122,11 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
@@ -1184,7 +1168,11 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MAID</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
@@ -1268,7 +1256,11 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sunitinib</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
@@ -6537,7 +6529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6548,580 +6540,564 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Tumor Site (Anatomic)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Subtype</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>WHO Grade</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Specimen Size</t>
+          <t>Histologic Grade (WHO)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Site</t>
+          <t>Integrated Molecular Grade</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Laterality</t>
+          <t>Mitotic Index [Mits/10HPF]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Focality</t>
+          <t>MIB-1 Proliferative Index [%]</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Percentage</t>
+          <t>Sheet-like Growth</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Necrosis Percentage</t>
+          <t>Small Cells</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Chemotherapy (Pre-Surgery)</t>
+          <t>Macronucleoli</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Radiation (Pre-Surgery)</t>
+          <t>Hypercellularity</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Immunotherapy (Pre-surgery)</t>
+          <t>Spontaneous Necrosis</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Targeted Therapies (Pre-surgery)</t>
+          <t>1p loss</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Experimental Tx (Pre-surgery)</t>
+          <t>3p loss</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Chemotherapy (Adjuvant)</t>
+          <t>4p/q loss</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Radiation (Adjuvant)</t>
+          <t>6p/q loss</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Immunotherapy (Adjuvant)</t>
+          <t>10p/q loss</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Targeted Therapies (Adjuvant)</t>
+          <t>14q loss</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Experimental Tx (Adjuvant)</t>
+          <t>18p/q loss</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>19p/q loss</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>CDKN2A/B loss</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>High-Risk Alteration Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Mitotic Range</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Mitotic Score</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Risk Score</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Convexity (Frontal)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Meningiothelial</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>____ cm</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Frontal lobe</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Unifocal</t>
-        </is>
-      </c>
+          <t>1 (Risk Score 0-1)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Paclitaxel</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Ipilumumab</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Sunitinib</t>
+          <t>1 (yes)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Paclitaxel</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ipilumumab</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Sunitinib</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1-point for each yes (AH-AP)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>4-19</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>AQ + AS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Convexity (Parietal)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Fibrous (fibroplastic)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Parietal lobe</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Multifocal</t>
-        </is>
-      </c>
+          <t>2 (Risk Score 2-3)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Nivolumab</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Bevacizumab</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>0 (no)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Nivolumab</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Bevacizumab</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Convexity (Temporal)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Transitional (mixed)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Temporal lobe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Midline</t>
-        </is>
-      </c>
+          <t>3 (Risk Score ≥4)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Trastuzumab (Herceptin)</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Other:</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Everolimus</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Trastuzumab (Herceptin)</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Everolimus</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Convexity (Occipital)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Psammomatous</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Occipital lobe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Capecitabine</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Larotrectinib</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Capecitabine</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Larotrectinib</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Falx Cerebri</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Angiomatous</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Basal ganglia</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Etoposide</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Entrectinib</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Etoposide</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Entrectinib</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Tentorium</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Microcystic</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Thalamus</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Methotrexate</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Tucatinib (Tukysa)</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Methotrexate</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Tucatinib (Tukysa)</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Sellar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Secretory</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hypothalamus</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Topotecan</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Ado-trastuzumab emtansine (KADCYLA)</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Topotecan</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Ado-trastuzumab emtansine (KADCYLA)</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Spine</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Lymphoplasmacyte-rich</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Cerebellum</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Other:</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Lapatinib</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Lapatinib</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Skull Base (Anterior Fossa)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Metaplastic</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Lateral ventricle</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Neratinib</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Neratinib</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Skull Base (Middle Fossa)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Chordoid</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Third ventricle</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -7129,35 +7105,33 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Fam-trastuzumab deruxtecan-nxki</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Fam-trastuzumab deruxtecan-nxki</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Skull Base (Posterior Fossa)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Clear cell</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fourth ventricle</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -7165,35 +7139,33 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Pertuzumab</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Pertuzumab</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Superior Sagittal Sinus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Atypical</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Cerebral aqueduct</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -7201,35 +7173,33 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Dabrafenib</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Dabrafenib</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Cavernous Sinus</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Papillary</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Midbrain</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -7237,35 +7207,33 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Trametinib</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Trametinib</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Sigmoid Sinus</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Rhabdoid</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Pons</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -7273,35 +7241,33 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Vemurafenib</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Vemurafenib</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Transverse Sinus</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Anaplastic</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Medulla</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -7309,24 +7275,26 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Cobimetinib</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Cobimetinib</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Straight Sinus</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -7337,433 +7305,19 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Cabozantinib</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Cabozantinib</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Adagrasib</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Adagrasib</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Osimertinib</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Osimertinib</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Erlotinib</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Erlotinib</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Afatinib</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Afatinib</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Gefitinib</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Gefitinib</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Capmatinib</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Capmatinib</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Tepotinib</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Tepotinib</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Selpercatinib</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Selpercatinib</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Brigatinib</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Brigatinib</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Lorlatinib</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Lorlatinib</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Alectinib</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Alectinib</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Certitinib</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Certitinib</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Crizotinib</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Crizotinib</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Other:</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11727,7 +11281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11738,27 +11292,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vital Status at Last Follow Up</t>
+          <t>Procedure</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Days to last follow up</t>
+          <t>Resection (if applicable)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pathologic Diagnosis</t>
+          <t>Organ/Anatomic Region of Procedure</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Site of Resection or Biopsy</t>
+          <t>Tissue or Organ of Origin</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tissue or Organ of Origin</t>
+          <t>Procedure Site</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -11768,37 +11322,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Last Known Disease Status</t>
+          <t>Tumor/Specimen Laterality</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>NGS</t>
+          <t>Tumor Focality</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Other Molecular Profiling</t>
+          <t>Tumor/Specimen Diameter [cm]</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Margins</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Relevant IHC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>IHC Result</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Molecular Profiling Assays</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Sequence Alterations</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Chromosomal Copy-number Alterations</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Structural Alterations</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Relevant Laboratory Assays</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alive</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
+          <t>Biopsy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Subtotal (STR)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
@@ -11806,18 +11395,53 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
+          <t>Unifocal</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Targeted gene sequencing</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>[free text]</t>
         </is>
@@ -11826,42 +11450,321 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Deceased</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>Excision</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gross Total (GTR)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>e.g., Brain, Lung, Heart, Skin</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>anatomic location of sample (Procedure site)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Site of primary cancer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>e.g., Frontal Lobe, Head of Pancreas</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Multifocal</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Multi-focal</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Next-generation sequencing</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ex: methylation profiling, cna, targeted sequencing</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Resection</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Midline</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Focal</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Whole-exome sequencing</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Autopsy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Patchy</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Whole-genome sequencing</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fine Needle Aspiration (Cytology)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Rare Cells</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Methylation profiling</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Smear (Cytology)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Chromosomal copy-number array</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fluid (Cytology)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Karyotyping</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Scraping (Cytology)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>FISH</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Other (Describe)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11874,7 +11777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11890,87 +11793,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Site of Resection or Biopsy</t>
+          <t>Age at Diagnosis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cancer Tissue of Origin (Organ)</t>
+          <t>Vital Status at Last Follow Up</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Last Known Disease Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Year of Death</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Immediate Cause of Death</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Underlying Cause of Death</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cancer-Related Cause of Death</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Days to Last Follow Up</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date last updated</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Status post-treatment</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Progression (for residual and disease free post-treatment; DFS or PFS)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Recurrence (for disease free post-treatment; DFS)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Progression Free Survival (PFS) [Days]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>PFS Censoring [0/1]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>AJCC 8th Edition Staging (TNM)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Disease-Free Survival (DFS) [Days]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DFS Censoring [0/1]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>NGS.1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Other Molecular Profiling.1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Survival [Days]</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>OS Censoring [0/1]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Relevant IHC.1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AJCC 8th Edition Staging (pTNM)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Recurrence/Progression Status of samples</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor site</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Progression or Recurrence</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor site (general)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Percent</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Necrosis Percent (if applicable)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Mitotic Rate [mits/10HPF] (if applicable)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Treatment History at time of sample collection</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Last Known Disease Status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>NGS</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Other Molecular Profiling</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant IHC</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Progression Free Survival (PFS)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Overall Survival (OS)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Date last updated</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AJCC 8th Edition Staging (TNM)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>NGS.1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Other Molecular Profiling.1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant IHC.1</t>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Chemotherapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Radiation (Pre-Surgery)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Immunotherapy (pre-surgery)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Tx (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Chemotherapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Radiation (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Immunotherapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Targeted Therapies (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Tx (Adjuvant)</t>
         </is>
       </c>
     </row>
@@ -11981,138 +11989,373 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alive</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Primary</t>
+          <t>No known disease</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Primary</t>
+          <t>YYYY</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes/No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Disease free</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Treatment naïve</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Describe type:</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[free text]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Describe type:</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Describe type:</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
         <is>
           <t>[free text]</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Treatment naïve</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[free text]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pathology report topline</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>anatomic location of sample (Procedure site)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Age diagnosed for the cancer type being studied in this biosample</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deceased</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Progression</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Metastatic</t>
-        </is>
-      </c>
+          <t>Stable disease</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>e.g. respiratory failure, cardiac arrest, stroke, cerebral hypoxia, etc.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Received neoadjuvant treatment</t>
+          <t>e.g., cancer, chronic heart failure,  trauma, etc.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Residual disease</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Recurrent/Residual</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Metastatic (local invasion)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Received neoadjuvant treatment</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Recurrent</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Received adjuvant treatment</t>
-        </is>
-      </c>
+          <t>Recurrent/progressive disease</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Metastatic (distal)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Received prior adjuvant treatment</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -12120,16 +12363,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Metastasis</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -12141,16 +12380,41 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Metastatic (NOS)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -12165,6 +12429,121 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Did the patient receive treatment before the sample was obtained</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>(some specimens may be from non-primary sites in 'primary' specimen due to local invasion, e.g., colon cancer invading into the small bowel)</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19079,7 +19458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19090,479 +19469,837 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>Tumor Site</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Specimen Size</t>
+          <t>Contrast Enhancement [MRI]</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Site</t>
+          <t>Subtype</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Laterality</t>
+          <t>WHO Grade</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Focality</t>
+          <t>IDH1/2 Status</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>H3K27M Status</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>WHO Grade</t>
+          <t>BRAF Status</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>MGMT Promoter Methylation Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Microvascular proliferation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Chemotherapy (Pre-surgery)</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Radiation (Pre-surgery)</t>
+          <t>Mitotic Index [mits/10HPF] (if applicable)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Immunotherapy (Pre-surgery)</t>
+          <t>MIB-1 Proliferative Index [%] (if applicable)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Targeted Therapy (Pre-surgery)</t>
+          <t>Tumor Mutational Burden (TMB)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Experimental Tx (Pre-surgery)</t>
+          <t>Hypermutant</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Treatment Type (Adjuvant)</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Chemotherapy (Adjuvant)</t>
+          <t>POLE</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Radiation (Adjuvant)</t>
+          <t>Polysomy 7</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Immunotherapy (Adjuvant)</t>
+          <t>Monosomy 10</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Targeted Therapy (Adjuvant)</t>
+          <t>TERT promoter mutation</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Necrosis</t>
+          <t>EGFR Amplification</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Mitotic Count (per 10 hpf)</t>
+          <t>H3K27M</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Ki67 index</t>
+          <t>H3G34R</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Tumor Percentage</t>
+          <t>1p/19q-codeletion</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Necrosis Percentage</t>
+          <t>IDH1/2</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>MGMT Methylation Status</t>
+          <t>EGFRvIII</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Treatment</t>
+          <t>EGFR CTD [other]</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>IDH1/2 Status</t>
+          <t>CDK4</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>H3K27M Status</t>
+          <t>MDM2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>BRAF Status</t>
+          <t>MDM4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>PDGFRA</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>TP53</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>CDKN2A/B</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>PTEN</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RB1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>NF1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ATRX</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>FGFR1-TACC1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>FGFR3-TACC3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Open biopsy</t>
+          <t>Frontal lobe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>____ cm</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Frontal lobe</t>
+          <t>Glioblastoma, IDH-wildtype</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unifocal</t>
+          <t>Mutant</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Astrocytoma, IDH-mutant (grade IV)</t>
+          <t>Mutant</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Mutant</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Methylated</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Larotrectinib</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+          <t>Wildtype</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Larotrectinib</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Wildtype</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Methylated</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>[free text?]</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Mutant</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Mutant</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Mutant</t>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Biopsy with intraoperative consultation</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Parietal lobe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parietal lobe</t>
+          <t>Astrocytoma, IDH-mutant</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multifocal</t>
+          <t>Wildtype</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Oligodendroglioma, IDH-mutant and 1p/19q-codeleted</t>
+          <t>Wildtype</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>Wildtype</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>Unmethylated</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Etoposide</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Entrectinib</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Deficient</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Etoposide</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+          <t>Mutant</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Entrectinib</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>Absent</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>IDH1 R132H</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Unmethylated</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Wildtype</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Wildtype</t>
+          <t>Gain</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Wildtype</t>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>One-copy loss</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>One-copy loss</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>One-copy loss</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>One-copy loss</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>One-copy loss</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>One-copy loss</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stereotactic biopsy</t>
+          <t>Temporal lobe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Temporal lobe</t>
+          <t>Oligodendroglioma, IDH-mutant and 1p/19q-codeleted</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Midline</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Glioblastoma, IDH-wildtype</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Carboplatin</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partially Methylated</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Dabrafenib</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Carboplatin</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Dabrafenib</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>IDH1 R132X (non-canonical)</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Partially methylated</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Amplification</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Amplification</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Amplification</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Amplification</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Amplification</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Two-copy loss</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Two-copy loss</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Two-copy loss</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Two-copy loss</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Two-copy loss</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Two-copy loss</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Resection</t>
+          <t>Occipital lobe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Occipital lobe</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
+          <t>Infiltrating Glioma, NOS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Trametinib</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Vincristine</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Trametinib</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>IDH2 R172X (non-canonical)</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Basal ganglia</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Basal ganglia</t>
+          <t>Astrocytoma, NOS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -19570,49 +20307,95 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Thioguanine</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Vemurafenib</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Thioguanine</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Vemurafenib</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Thalamus</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thalamus</t>
+          <t>Giant Cell Glioblastoma</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -19620,31 +20403,15 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lomustine</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Cobimetinib</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Lomustine</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Cobimetinib</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -19656,13 +20423,27 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hypothalamus</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hypothalamus</t>
+          <t>Epithelioid Glioblastoma</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -19670,31 +20451,15 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Carmustine</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Selumetinib</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Carmustine</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Selumetinib</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -19706,13 +20471,27 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cerebellum</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cerebellum</t>
+          <t>Gliosarcoma</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -19720,21 +20499,13 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>PCV</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>PCV</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -19748,1198 +20519,7 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Lateral ventricle</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Temozolamide</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Temozolamide</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Third ventricle</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fourth ventricle</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cerebral aqueduct</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Midbrain</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Pons</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Medulla</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Types</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Specimen Laterality</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Focality</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Site</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Histologic Type</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Histologic Grade (WHO/ISUP)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Extent</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Chemotherapy (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Radiation (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Immunotherapy (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Targeted Therapy (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Experimental Tx (Pre-surgery)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Chemotherapy (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Radiation (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Immunotherapy (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Targeted Therapy (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Experimental Tx (Adjuvant)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Muscularis propria</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Sarcomatoid Features</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Percentage of Sarcomatoid Element</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Rhabdoid Features</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Tumor Necrosis</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Percentage of Tumor Necrosis</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Lymphovascular Invasion (excluding renal vein and its segmental branches and inferior vena cava)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Regional Lymph Node Status</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Lymph Nodes with Tumor</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Nodal Site(s) with Tumor (select all that apply)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Size of Largest Nodal Metastatic Deposit</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Size of Largest Lymph Node with Tumor</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Lymph Nodes Examined</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Distant Metastasis</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Location of Distant Metastasis</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Additional Findings in Nonneoplastic Kidney (select all that apply)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Additional Findings (select all that apply)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Renal cell carcinomas</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Partial nephrectomy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Unifocal</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Upper pole</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[Greatest dimension: _______ cm]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Clear cell renal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>G1 (nucleoli absent or inconspicuous and basophilic at 400x magnification)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Limited to kidney</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Gemcitabine</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pembrolizumab</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Axitinib</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Gemcitabine</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Pembrolizumab</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Axitinib</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Muscularis propria absent</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Not identified</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>___%</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Not identified</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Not identified</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>___%</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Not Identified</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[Specify number]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Hilar</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[Specify in cm]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[Specify in cm]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[Specify number]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[Specify]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Insufficient tissue</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Cyst(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Radical nephrectomy</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Multifocal</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Multiocular cystic clear cell renal cell neoplasm of low malignant potential</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G2 (nucleoli conspicuous and eosinophilic at 400x magnification, visible but not prominent at 100x magnification</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Extends into perinephric tissue (beyond renal capsule)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Carboplatin</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Nivolumab</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Cabozantinib</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Carboplatin</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Nivolumab</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Cabozantinib</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Muscularis propria present</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Regional lymph nodes present</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Precaval</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>None identified</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Tubular (papillary) adenoma(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total nephrectomy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lower pole</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Papillary renal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>G3 (nucleoli conspicuous and eosinophilic at 100x magnification)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Extends into renal sinus</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Ipilimumab</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Lenvatinib</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Cisplatin</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Ipilimumab</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Lenvatinib</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Interaortocaval</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Glomerular disease (specify)</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Other (specify)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Needle biopsy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Papillary renal cell carcinoma, type 1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>G4 (extreme nuclear pleomorphism and/or multi-nuclear giant cells and/or rhabdoid and/or sarcomatoid differentiation)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Extends beyond Gerota's fascia</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Paclitaxel</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>High-dose IL-2</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Pazopanib</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Paclitaxel</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>High-dose IL-2</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Pazopanib</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Paracaval</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Tubulointerstitial disease (specify)</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Incisional biopsy, wedge</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Papillary renal cell carcinoma, type 2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>GX (cannot be assessed)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Extends into major vein (renal vein or its segmental branches, inferior vena cava)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Avelumab</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Sunitinib</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Avelumab</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Sunitinib</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Retrocaval</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Vascular disease (specify)</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Chromophobe renal cell carcinoma</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Extends into pelvicalyceal system</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Temsirolimus</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Temsirolimus</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Preaortic</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Other (specify)</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Collecting duct carcinoma</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Directly invades adrenal gland (T4)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Belzutifan</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Belzutifan</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Paraaortic</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Renal medullary carcinoma</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Involves adrenal gland non-contiguously (M1)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Tivozanib</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Tivozanib</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Retroaortic</t>
-        </is>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
@@ -20947,25 +20527,23 @@
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lateral ventricle</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>MiT family translocation renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Extends into other organ(s): specify ____</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -20993,25 +20571,23 @@
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Third ventricle</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Xp11 translocation renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Cannot be determined</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -21039,25 +20615,23 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fourth ventricle</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>t(6;11) renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>No evidence of primary tumor</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -21085,19 +20659,21 @@
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cerebral aqueduct</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Mucinous tubular and spindle renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -21127,19 +20703,21 @@
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Midbrain</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Tubulocystic renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -21169,19 +20747,21 @@
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pons</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Acquired cystic disease associated renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -21211,19 +20791,21 @@
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Medulla</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Clear cell papillary renal cell carcinoma</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -21253,6 +20835,1267 @@
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Types</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Specimen Laterality</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Focality</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Site</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Histologic Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Histologic Grade (WHO/ISUP)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Extent</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chemotherapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Radiation (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Immunotherapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Targeted Therapy (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Tx (Pre-surgery)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Chemotherapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Radiation (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Immunotherapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Targeted Therapy (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Tx (Adjuvant)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Muscularis propria</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Sarcomatoid Features</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of Sarcomatoid Element</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Rhabdoid Features</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Tumor Necrosis</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of Tumor Necrosis</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Lymphovascular Invasion (excluding renal vein and its segmental branches and inferior vena cava)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Regional Lymph Node Status</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Lymph Nodes with Tumor</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Nodal Site(s) with Tumor (select all that apply)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Size of Largest Nodal Metastatic Deposit</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Size of Largest Lymph Node with Tumor</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Lymph Nodes Examined</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Distant Metastasis</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Location of Distant Metastasis</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Findings in Nonneoplastic Kidney (select all that apply)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Findings (select all that apply)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Renal cell carcinomas</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Partial nephrectomy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unifocal</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Upper pole</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[Greatest dimension: _______ cm]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Clear cell renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>G1 (nucleoli absent or inconspicuous and basophilic at 400x magnification)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Limited to kidney</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Gemcitabine</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pembrolizumab</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Axitinib</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Gemcitabine</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Pembrolizumab</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Axitinib</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Muscularis propria absent</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Not identified</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>___%</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Not identified</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Not identified</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>___%</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Not Identified</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[Specify number]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Hilar</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[Specify in cm]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[Specify in cm]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[Specify number]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[Specify]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Insufficient tissue</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Cyst(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Radical nephrectomy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Multifocal</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Multiocular cystic clear cell renal cell neoplasm of low malignant potential</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>G2 (nucleoli conspicuous and eosinophilic at 400x magnification, visible but not prominent at 100x magnification</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Extends into perinephric tissue (beyond renal capsule)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Carboplatin</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Nivolumab</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Cabozantinib</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Carboplatin</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Nivolumab</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Cabozantinib</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Muscularis propria present</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Regional lymph nodes present</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Precaval</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>None identified</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Tubular (papillary) adenoma(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total nephrectomy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lower pole</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Papillary renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>G3 (nucleoli conspicuous and eosinophilic at 100x magnification)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Extends into renal sinus</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cisplatin</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Ipilimumab</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Lenvatinib</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Cisplatin</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ipilimumab</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Lenvatinib</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Interaortocaval</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Glomerular disease (specify)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Other (specify)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Needle biopsy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Papillary renal cell carcinoma, type 1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>G4 (extreme nuclear pleomorphism and/or multi-nuclear giant cells and/or rhabdoid and/or sarcomatoid differentiation)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Extends beyond Gerota's fascia</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Paclitaxel</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>High-dose IL-2</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Pazopanib</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Paclitaxel</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>High-dose IL-2</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Pazopanib</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Paracaval</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Tubulointerstitial disease (specify)</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Incisional biopsy, wedge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Papillary renal cell carcinoma, type 2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GX (cannot be assessed)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Extends into major vein (renal vein or its segmental branches, inferior vena cava)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Avelumab</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Sunitinib</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Avelumab</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Sunitinib</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Retrocaval</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Vascular disease (specify)</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chromophobe renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Extends into pelvicalyceal system</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Temsirolimus</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Temsirolimus</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Preaortic</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Other (specify)</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Collecting duct carcinoma</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Directly invades adrenal gland (T4)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Belzutifan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Belzutifan</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Paraaortic</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Renal medullary carcinoma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Involves adrenal gland non-contiguously (M1)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Tivozanib</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Tivozanib</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Retroaortic</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MiT family translocation renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Extends into other organ(s): specify ____</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Xp11 translocation renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cannot be determined</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>t(6;11) renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No evidence of primary tumor</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mucinous tubular and spindle renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tubulocystic renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Acquired cystic disease associated renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Clear cell papillary renal cell carcinoma</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
